--- a/stoichArray_elementalBalances.xlsx
+++ b/stoichArray_elementalBalances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbats\Documents\5440_adv_biomolecular\Downloads\ChemE_5440\PS3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B781DD47-9AFA-4F9F-956F-7279E56302DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FFE0B9-C7C5-485A-B427-DCE37B258B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF253E6B-5A19-49AA-9F45-0D788011DB1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>v1</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>vmin</t>
+  </si>
+  <si>
+    <t>vmax</t>
+  </si>
+  <si>
+    <t>part c.) we define all v reactions as only able to go forward, so vmin=0.  We are less sure for the b reactions and as such, we set bounds [-10,10]</t>
   </si>
 </sst>
 </file>
@@ -634,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AF2E56-E53D-4C9E-BF36-A2B233962F51}">
-  <dimension ref="D1:AV51"/>
+  <dimension ref="D1:AV73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="24" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="81" zoomScaleNormal="24" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2854,6 +2863,9 @@
       <c r="AV50" s="10"/>
     </row>
     <row r="51" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E51" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
       <c r="V51" s="8"/>
@@ -2877,6 +2889,182 @@
       <c r="AN51" s="8"/>
       <c r="AV51" s="10"/>
     </row>
+    <row r="52" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="54" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="56" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="57" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="58" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E58" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F58" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E59" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F59" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E60" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F60" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E61" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F61" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E62" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F62" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E63" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F63" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="4:48" x14ac:dyDescent="0.35">
+      <c r="E64" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F64" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E65" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F65" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E66" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F66" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E67" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F67" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E68" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F68" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E69" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F69" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E70" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F70" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E71" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F71" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E72" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F72" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="Z5:Z22 E8:Y25">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="between">

--- a/stoichArray_elementalBalances.xlsx
+++ b/stoichArray_elementalBalances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbats\Documents\5440_adv_biomolecular\Downloads\ChemE_5440\PS3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FFE0B9-C7C5-485A-B427-DCE37B258B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F562B5E1-CEB4-4408-8073-B55029C9ADD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF253E6B-5A19-49AA-9F45-0D788011DB1E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>v1</t>
   </si>
@@ -180,15 +180,6 @@
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>vmin</t>
-  </si>
-  <si>
-    <t>vmax</t>
-  </si>
-  <si>
-    <t>part c.) we define all v reactions as only able to go forward, so vmin=0.  We are less sure for the b reactions and as such, we set bounds [-10,10]</t>
   </si>
 </sst>
 </file>
@@ -288,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -305,6 +296,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -313,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AF2E56-E53D-4C9E-BF36-A2B233962F51}">
-  <dimension ref="D1:AV73"/>
+  <dimension ref="D1:AV70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="81" zoomScaleNormal="24" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="64" zoomScaleNormal="24" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2135,28 +2132,28 @@
       <c r="J34" s="5">
         <v>0</v>
       </c>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
-      <c r="AM34" s="8"/>
-      <c r="AN34" s="8"/>
-      <c r="AV34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AV34" s="10"/>
     </row>
     <row r="35" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D35" s="1" t="s">
@@ -2180,28 +2177,28 @@
       <c r="J35" s="5">
         <v>0</v>
       </c>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AV35" s="10"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AV35" s="11"/>
     </row>
     <row r="36" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D36" s="1" t="s">
@@ -2225,28 +2222,28 @@
       <c r="J36" s="5">
         <v>0</v>
       </c>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="8"/>
-      <c r="AV36" s="10"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AV36" s="11"/>
     </row>
     <row r="37" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D37" s="1" t="s">
@@ -2270,28 +2267,28 @@
       <c r="J37" s="5">
         <v>0</v>
       </c>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
-      <c r="AI37" s="8"/>
-      <c r="AJ37" s="8"/>
-      <c r="AK37" s="8"/>
-      <c r="AL37" s="8"/>
-      <c r="AM37" s="8"/>
-      <c r="AN37" s="8"/>
-      <c r="AV37" s="10"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="9"/>
+      <c r="AV37" s="11"/>
     </row>
     <row r="38" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D38" s="1" t="s">
@@ -2315,28 +2312,28 @@
       <c r="J38" s="5">
         <v>0</v>
       </c>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
-      <c r="AM38" s="8"/>
-      <c r="AN38" s="8"/>
-      <c r="AV38" s="10"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AV38" s="11"/>
     </row>
     <row r="39" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D39" s="1" t="s">
@@ -2360,28 +2357,28 @@
       <c r="J39" s="5">
         <v>0</v>
       </c>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
-      <c r="AM39" s="8"/>
-      <c r="AN39" s="8"/>
-      <c r="AV39" s="10"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="9"/>
+      <c r="AN39" s="9"/>
+      <c r="AV39" s="11"/>
     </row>
     <row r="40" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D40" s="1" t="s">
@@ -2405,28 +2402,28 @@
       <c r="J40" s="5">
         <v>0</v>
       </c>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="8"/>
-      <c r="AV40" s="10"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
+      <c r="AM40" s="9"/>
+      <c r="AN40" s="9"/>
+      <c r="AV40" s="11"/>
     </row>
     <row r="41" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D41" s="1" t="s">
@@ -2450,28 +2447,28 @@
       <c r="J41" s="5">
         <v>0</v>
       </c>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="8"/>
-      <c r="AL41" s="8"/>
-      <c r="AM41" s="8"/>
-      <c r="AN41" s="8"/>
-      <c r="AV41" s="10"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="9"/>
+      <c r="AL41" s="9"/>
+      <c r="AM41" s="9"/>
+      <c r="AN41" s="9"/>
+      <c r="AV41" s="11"/>
     </row>
     <row r="42" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D42" s="1" t="s">
@@ -2495,28 +2492,28 @@
       <c r="J42" s="5">
         <v>0</v>
       </c>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="8"/>
-      <c r="AH42" s="8"/>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
-      <c r="AL42" s="8"/>
-      <c r="AM42" s="8"/>
-      <c r="AN42" s="8"/>
-      <c r="AV42" s="10"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="9"/>
+      <c r="AM42" s="9"/>
+      <c r="AN42" s="9"/>
+      <c r="AV42" s="11"/>
     </row>
     <row r="43" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D43" s="1" t="s">
@@ -2540,28 +2537,28 @@
       <c r="J43" s="5">
         <v>0</v>
       </c>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
-      <c r="AM43" s="8"/>
-      <c r="AN43" s="8"/>
-      <c r="AV43" s="10"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="9"/>
+      <c r="AJ43" s="9"/>
+      <c r="AK43" s="9"/>
+      <c r="AL43" s="9"/>
+      <c r="AM43" s="9"/>
+      <c r="AN43" s="9"/>
+      <c r="AV43" s="11"/>
     </row>
     <row r="44" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D44" s="1" t="s">
@@ -2585,28 +2582,28 @@
       <c r="J44" s="5">
         <v>0</v>
       </c>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
-      <c r="AL44" s="8"/>
-      <c r="AM44" s="8"/>
-      <c r="AN44" s="8"/>
-      <c r="AV44" s="10"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
+      <c r="AM44" s="9"/>
+      <c r="AN44" s="9"/>
+      <c r="AV44" s="11"/>
     </row>
     <row r="45" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D45" s="1" t="s">
@@ -2630,28 +2627,28 @@
       <c r="J45" s="5">
         <v>0</v>
       </c>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="8"/>
-      <c r="AH45" s="8"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="8"/>
-      <c r="AK45" s="8"/>
-      <c r="AL45" s="8"/>
-      <c r="AM45" s="8"/>
-      <c r="AN45" s="8"/>
-      <c r="AV45" s="10"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9"/>
+      <c r="AM45" s="9"/>
+      <c r="AN45" s="9"/>
+      <c r="AV45" s="11"/>
     </row>
     <row r="46" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D46" s="1" t="s">
@@ -2675,28 +2672,28 @@
       <c r="J46" s="5">
         <v>0</v>
       </c>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="8"/>
-      <c r="AD46" s="8"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="8"/>
-      <c r="AG46" s="8"/>
-      <c r="AH46" s="8"/>
-      <c r="AI46" s="8"/>
-      <c r="AJ46" s="8"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="8"/>
-      <c r="AM46" s="8"/>
-      <c r="AN46" s="8"/>
-      <c r="AV46" s="10"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9"/>
+      <c r="AM46" s="9"/>
+      <c r="AN46" s="9"/>
+      <c r="AV46" s="11"/>
     </row>
     <row r="47" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D47" s="1" t="s">
@@ -2720,28 +2717,28 @@
       <c r="J47" s="5">
         <v>0</v>
       </c>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="8"/>
-      <c r="AH47" s="8"/>
-      <c r="AI47" s="8"/>
-      <c r="AJ47" s="8"/>
-      <c r="AK47" s="8"/>
-      <c r="AL47" s="8"/>
-      <c r="AM47" s="8"/>
-      <c r="AN47" s="8"/>
-      <c r="AV47" s="10"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
+      <c r="AM47" s="9"/>
+      <c r="AN47" s="9"/>
+      <c r="AV47" s="11"/>
     </row>
     <row r="48" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D48" s="1" t="s">
@@ -2765,28 +2762,28 @@
       <c r="J48" s="5">
         <v>0</v>
       </c>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="8"/>
-      <c r="AH48" s="8"/>
-      <c r="AI48" s="8"/>
-      <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="8"/>
-      <c r="AM48" s="8"/>
-      <c r="AN48" s="8"/>
-      <c r="AV48" s="10"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="9"/>
+      <c r="AN48" s="9"/>
+      <c r="AV48" s="11"/>
     </row>
     <row r="49" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D49" s="1" t="s">
@@ -2810,28 +2807,28 @@
       <c r="J49" s="5">
         <v>0</v>
       </c>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="8"/>
-      <c r="AK49" s="8"/>
-      <c r="AL49" s="8"/>
-      <c r="AM49" s="8"/>
-      <c r="AN49" s="8"/>
-      <c r="AV49" s="10"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="9"/>
+      <c r="AN49" s="9"/>
+      <c r="AV49" s="11"/>
     </row>
     <row r="50" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E50" s="6"/>
@@ -2839,230 +2836,519 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
-      <c r="AG50" s="8"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="8"/>
-      <c r="AJ50" s="8"/>
-      <c r="AK50" s="8"/>
-      <c r="AL50" s="8"/>
-      <c r="AM50" s="8"/>
-      <c r="AN50" s="8"/>
-      <c r="AV50" s="10"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="9"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="9"/>
+      <c r="AN50" s="9"/>
+      <c r="AV50" s="11"/>
     </row>
     <row r="51" spans="4:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="8"/>
-      <c r="AJ51" s="8"/>
-      <c r="AK51" s="8"/>
-      <c r="AL51" s="8"/>
-      <c r="AM51" s="8"/>
-      <c r="AN51" s="8"/>
-      <c r="AV51" s="10"/>
-    </row>
-    <row r="52" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E52" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="E51" s="3"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="9"/>
+      <c r="AN51" s="9"/>
+      <c r="AV51" s="11"/>
     </row>
     <row r="53" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E53" s="7">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7">
-        <v>6.9</v>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>1.2</v>
+      <c r="I54" s="8"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E55" s="7">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0.03</v>
+      <c r="I55" s="8"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>3.2</v>
+      <c r="I56" s="8"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E57" s="7">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0.47</v>
+      <c r="I57" s="8"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E58" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F58" s="7">
-        <v>10</v>
+      <c r="I58" s="8"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E59" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F59" s="7">
-        <v>10</v>
+      <c r="I59" s="8"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E60" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F60" s="7">
-        <v>10</v>
+      <c r="I60" s="8"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E61" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F61" s="7">
-        <v>10</v>
+      <c r="I61" s="8"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E62" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F62" s="7">
-        <v>10</v>
+      <c r="I62" s="8"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E63" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F63" s="7">
-        <v>10</v>
+      <c r="I63" s="8"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:48" x14ac:dyDescent="0.35">
-      <c r="E64" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F64" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E65" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F65" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E66" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F66" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E67" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F67" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E68" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F68" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E69" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F69" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E70" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F70" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E71" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F71" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E72" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F72" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E73" s="7">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>0.5</v>
+      <c r="I64" s="8"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:30" x14ac:dyDescent="0.35">
+      <c r="I65" s="8"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="9:30" x14ac:dyDescent="0.35">
+      <c r="I66" s="8"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:30" x14ac:dyDescent="0.35">
+      <c r="I67" s="8"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:30" x14ac:dyDescent="0.35">
+      <c r="I68" s="8"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:30" x14ac:dyDescent="0.35">
+      <c r="I69" s="8"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:30" x14ac:dyDescent="0.35">
+      <c r="I70" s="8"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3077,5 +3363,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>